--- a/biology/Botanique/Parcs_et_jardins_de_Vannes/Parcs_et_jardins_de_Vannes.xlsx
+++ b/biology/Botanique/Parcs_et_jardins_de_Vannes/Parcs_et_jardins_de_Vannes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,44 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parcs et jardins de Vannes sont les espaces verts et espaces naturels de la commune française de Vannes dans le Morbihan en Bretagne. La ville dispose également d'une centaine de parcelles de jardins familiaux sur les sites du jardin de Bernus à proximité des quartiers de Kercado et de Cliscouët et du jardin de Kermesquel, à proximité des quartiers de Ménimur et de Kervallon.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Parcs_et_jardins_de_Vannes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parcs_et_jardins_de_Vannes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Espaces verts et naturels de Vannes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jardins et Squares
-Parcs publics
-Espaces verts
-Espaces naturels
-Jardins familiaux</t>
         </is>
       </c>
     </row>
